--- a/Dog Digger/Report_2409.xlsx
+++ b/Dog Digger/Report_2409.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>業外損益</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>EPS</t>
         </is>
       </c>
@@ -506,6 +511,9 @@
         <v>-4892704</v>
       </c>
       <c r="I2" t="n">
+        <v>207646</v>
+      </c>
+      <c r="J2" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -535,6 +543,9 @@
         <v>-2828229</v>
       </c>
       <c r="I3" t="n">
+        <v>591861</v>
+      </c>
+      <c r="J3" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -564,6 +575,9 @@
         <v>-4736953</v>
       </c>
       <c r="I4" t="n">
+        <v>700106</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -593,6 +607,9 @@
         <v>-9141530</v>
       </c>
       <c r="I5" t="n">
+        <v>-2631081</v>
+      </c>
+      <c r="J5" t="n">
         <v>-0.93</v>
       </c>
     </row>
@@ -622,6 +639,9 @@
         <v>-5778097</v>
       </c>
       <c r="I6" t="n">
+        <v>-331545</v>
+      </c>
+      <c r="J6" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -651,6 +671,9 @@
         <v>-3202471</v>
       </c>
       <c r="I7" t="n">
+        <v>201627</v>
+      </c>
+      <c r="J7" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -680,6 +703,9 @@
         <v>3010324</v>
       </c>
       <c r="I8" t="n">
+        <v>357936</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -709,6 +735,9 @@
         <v>8877671</v>
       </c>
       <c r="I9" t="n">
+        <v>596367</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -738,6 +767,9 @@
         <v>11841515</v>
       </c>
       <c r="I10" t="n">
+        <v>-176710</v>
+      </c>
+      <c r="J10" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -767,6 +799,9 @@
         <v>19862456</v>
       </c>
       <c r="I11" t="n">
+        <v>-422651</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.06</v>
       </c>
     </row>
@@ -796,6 +831,9 @@
         <v>19963883</v>
       </c>
       <c r="I12" t="n">
+        <v>-462849</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.03</v>
       </c>
     </row>
@@ -825,6 +863,9 @@
         <v>11791244</v>
       </c>
       <c r="I13" t="n">
+        <v>1445692</v>
+      </c>
+      <c r="J13" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -854,6 +895,9 @@
         <v>5174629</v>
       </c>
       <c r="I14" t="n">
+        <v>-123568</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -883,6 +927,9 @@
         <v>-5697216</v>
       </c>
       <c r="I15" t="n">
+        <v>-1052162</v>
+      </c>
+      <c r="J15" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -912,6 +959,9 @@
         <v>-10489762</v>
       </c>
       <c r="I16" t="n">
+        <v>3224869</v>
+      </c>
+      <c r="J16" t="n">
         <v>-1.23</v>
       </c>
     </row>
@@ -941,6 +991,9 @@
         <v>-9960831</v>
       </c>
       <c r="I17" t="n">
+        <v>948077</v>
+      </c>
+      <c r="J17" t="n">
         <v>-1.33</v>
       </c>
     </row>
@@ -970,6 +1023,9 @@
         <v>-11087255</v>
       </c>
       <c r="I18" t="n">
+        <v>50343</v>
+      </c>
+      <c r="J18" t="n">
         <v>-1.42</v>
       </c>
     </row>
@@ -999,6 +1055,9 @@
         <v>-4733591</v>
       </c>
       <c r="I19" t="n">
+        <v>-309104</v>
+      </c>
+      <c r="J19" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -1028,6 +1087,9 @@
         <v>-923027</v>
       </c>
       <c r="I20" t="n">
+        <v>408496</v>
+      </c>
+      <c r="J20" t="n">
         <v>-0.13</v>
       </c>
     </row>

--- a/Dog Digger/Report_2409.xlsx
+++ b/Dog Digger/Report_2409.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>EPS</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>研營比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>研支比</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>毛率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -516,6 +531,15 @@
       <c r="J2" t="n">
         <v>-0.38</v>
       </c>
+      <c r="K2" t="n">
+        <v>3.766543141663897</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47.01603447095003</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3650581791609455</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -548,6 +572,15 @@
       <c r="J3" t="n">
         <v>-0.28</v>
       </c>
+      <c r="K3" t="n">
+        <v>3.557924923464852</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46.13851992761067</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.830101348181524</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -580,6 +613,15 @@
       <c r="J4" t="n">
         <v>-0.41</v>
       </c>
+      <c r="K4" t="n">
+        <v>3.418669442685982</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46.36852125314164</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.3884927231201234</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -612,6 +654,15 @@
       <c r="J5" t="n">
         <v>-0.93</v>
       </c>
+      <c r="K5" t="n">
+        <v>3.888053308108356</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48.07065518834759</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.417905929797003</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -644,6 +695,15 @@
       <c r="J6" t="n">
         <v>-0.53</v>
       </c>
+      <c r="K6" t="n">
+        <v>4.647432473828596</v>
+      </c>
+      <c r="L6" t="n">
+        <v>49.00319976087714</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.660472697587937</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -676,6 +736,15 @@
       <c r="J7" t="n">
         <v>-0.31</v>
       </c>
+      <c r="K7" t="n">
+        <v>4.057864024041128</v>
+      </c>
+      <c r="L7" t="n">
+        <v>50.33451169535867</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.701023797081775</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -708,6 +777,15 @@
       <c r="J8" t="n">
         <v>0.3</v>
       </c>
+      <c r="K8" t="n">
+        <v>3.477916297060616</v>
+      </c>
+      <c r="L8" t="n">
+        <v>49.89233552763036</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.59283943436458</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -740,6 +818,15 @@
       <c r="J9" t="n">
         <v>0.89</v>
       </c>
+      <c r="K9" t="n">
+        <v>3.31189338501437</v>
+      </c>
+      <c r="L9" t="n">
+        <v>49.70291741896219</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16.94623903986117</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,6 +859,15 @@
       <c r="J10" t="n">
         <v>1.25</v>
       </c>
+      <c r="K10" t="n">
+        <v>3.48329688737915</v>
+      </c>
+      <c r="L10" t="n">
+        <v>46.26500174230312</v>
+      </c>
+      <c r="M10" t="n">
+        <v>22.0191665075468</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -804,6 +900,15 @@
       <c r="J11" t="n">
         <v>2.06</v>
       </c>
+      <c r="K11" t="n">
+        <v>3.521757766150404</v>
+      </c>
+      <c r="L11" t="n">
+        <v>46.76204467023143</v>
+      </c>
+      <c r="M11" t="n">
+        <v>28.73765125894486</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -836,6 +941,15 @@
       <c r="J12" t="n">
         <v>2.03</v>
       </c>
+      <c r="K12" t="n">
+        <v>3.363262299587827</v>
+      </c>
+      <c r="L12" t="n">
+        <v>47.68320291159208</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.67495722022514</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -868,6 +982,15 @@
       <c r="J13" t="n">
         <v>1.11</v>
       </c>
+      <c r="K13" t="n">
+        <v>3.740968520381079</v>
+      </c>
+      <c r="L13" t="n">
+        <v>47.96015545688645</v>
+      </c>
+      <c r="M13" t="n">
+        <v>18.92033900367388</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -900,6 +1023,15 @@
       <c r="J14" t="n">
         <v>0.54</v>
       </c>
+      <c r="K14" t="n">
+        <v>3.9344402285442</v>
+      </c>
+      <c r="L14" t="n">
+        <v>50.15095324905175</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14.34382886184357</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -932,6 +1064,15 @@
       <c r="J15" t="n">
         <v>-0.59</v>
       </c>
+      <c r="K15" t="n">
+        <v>5.060108508238016</v>
+      </c>
+      <c r="L15" t="n">
+        <v>49.95470823942685</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.742741996502092</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -964,6 +1105,15 @@
       <c r="J16" t="n">
         <v>-1.23</v>
       </c>
+      <c r="K16" t="n">
+        <v>6.464620275968912</v>
+      </c>
+      <c r="L16" t="n">
+        <v>49.84129110211644</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-14.60647509032402</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -996,6 +1146,15 @@
       <c r="J17" t="n">
         <v>-1.33</v>
       </c>
+      <c r="K17" t="n">
+        <v>6.197930030770952</v>
+      </c>
+      <c r="L17" t="n">
+        <v>51.61821018564495</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-8.713194182445083</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1028,6 +1187,15 @@
       <c r="J18" t="n">
         <v>-1.42</v>
       </c>
+      <c r="K18" t="n">
+        <v>6.243644422791931</v>
+      </c>
+      <c r="L18" t="n">
+        <v>50.88506290467234</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-9.48799656577833</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1060,6 +1228,15 @@
       <c r="J19" t="n">
         <v>-0.63</v>
       </c>
+      <c r="K19" t="n">
+        <v>5.158456964296162</v>
+      </c>
+      <c r="L19" t="n">
+        <v>50.9061493162015</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.145821404930361</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1091,6 +1268,56 @@
       </c>
       <c r="J20" t="n">
         <v>-0.13</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.863405309264354</v>
+      </c>
+      <c r="L20" t="n">
+        <v>51.09642898567056</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7.618896386934408</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63345797</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2133568</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1203538</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2639089</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-3359348</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-7201975</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-5068407</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1407281</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3661126</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.30319004432133</v>
+      </c>
+      <c r="L21" t="n">
+        <v>46.64481617889537</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.368128748936571</v>
       </c>
     </row>
   </sheetData>
